--- a/testresults/OpenERP_TestCase_Skill management.xlsx
+++ b/testresults/OpenERP_TestCase_Skill management.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="911" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="911" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Skill management" sheetId="7" r:id="rId7"/>
     <sheet name="IMSM" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="994">
   <si>
     <t>Status Definition</t>
   </si>
@@ -7235,49 +7235,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1.Input user name and password
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- Manager: lienlt/12345678    or
-- Admin : admin/12345678</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-2.Click Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User is redirected to Homepage of member </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>with Messaging, Project, Human Resources, ISMS Helpdesk, Invoicing, Tools, Reporting, Reports, Settings in navigator
-User Name in top right banner: lienlt/VSII Admin</t>
-    </r>
-  </si>
-  <si>
     <t>SM_03</t>
   </si>
   <si>
@@ -7290,48 +7247,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Input user name and password
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>anhptq/12345678</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Click Submit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User is redirected to Homepage of member </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>with Messaging, Project, Human Resources, ISMS Helpdesk in navigator
-User Name in top right banner: anhptq</t>
-    </r>
-  </si>
-  <si>
     <t>SM_04</t>
   </si>
   <si>
@@ -7347,26 +7262,6 @@
     <t>1. Click "Setting"</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Show left nevigation bar includes 5 sections:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1. Skills
-2. Certificates
-3. Awards
-4. Categories
-5.Organizers</t>
-    </r>
-  </si>
-  <si>
     <t>SM_05</t>
   </si>
   <si>
@@ -7378,26 +7273,6 @@
   <si>
     <t xml:space="preserve">1.Click Setting\ Skills
 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Show Skills List table
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Each row represents a skill
-The table includes 3 columns:
-1. Checkbox
-2. Name
-3. Skill Domain</t>
-    </r>
   </si>
   <si>
     <t>SM_06</t>
@@ -7462,27 +7337,6 @@
 2. Click to "Categories" in left navigation bar</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Show Categories table
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Each row represents a skill
-The table includes 3 columns:
-1. Checkbox
-2. Name
-3. Skill Domain
-4. Parent Category</t>
-    </r>
-  </si>
-  <si>
     <t>SM_10</t>
   </si>
   <si>
@@ -7541,82 +7395,10 @@
 3. Click to button "Create"</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Show a form "New" allow user input data
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>The form includes:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1. Name: blank
-2. Type: (Droplist: Skill Domain, Certificate Category, Award Category)
-3. Parent Category: blank
-4. Description; blank</t>
-    </r>
-  </si>
-  <si>
     <t>SM_14</t>
   </si>
   <si>
     <t>Verify that the fields "Name", "Type"  are required field</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Click to "Setting"
-2. Click to "Categories"
-3. Click to button "Create"
-4. Fill the form:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Name] = null
-[Type] = null
-[Parent Category] = null
-[Description] = null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-5. Click to "Save"
-</t>
-    </r>
   </si>
   <si>
     <t>Show the message: 
@@ -7635,199 +7417,6 @@
     <t>Verify that user can create a new category</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Click to "Setting"
-2. Click to "Categories"
-3. Click to button "Create"
-4. Fill the form:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Name] = Communication
-[Type] = Skills Domain
-[Parent Category] = blank
-[Description] = blank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-5. Click to "Save"
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A new category is created in Categories and showed in Categories List
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1.[Name] = Communication
-2.[Type] = Skills Domain
-3.[Parent Category] = blank
-4.[Description] = blank</t>
-    </r>
-  </si>
-  <si>
-    <t>SM_16</t>
-  </si>
-  <si>
-    <t>Verify that form "Create: Parent Category" is opened correctly in Categories section</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Click to "Setting"
-2. Click to "Categories"
-3. Click to button "Create"
-4. Fill the form:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Name] = Communication
-[Type] = Skills Domain
-[Parent Category] = droplist
-[Description] = blank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-5.Select to "Create and Edit" in the droplist of "Parent Category" </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Show a form "Create: Parent Category" allow user input data.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>The form include:
-1.Name (required field)
-2. Type: (droplist) (required field)
-3. Parent Category: optional
-4. Description: blank</t>
-    </r>
-  </si>
-  <si>
-    <t>SM_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vefiry that user can create a new parent category </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Click to "Setting"
-2. Click to "Categories"
-3. Click to button "Create"
-4. Fill the form:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Name] = Communication
-[Type] = Skills Domain
-[Parent Category] = droplist
-[Description] = blank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-5.Select to "Create and Edit" in the droplist of "Parent Category" 
-6. Fill the form "Create: Parent Category"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Name] = BA
-[Type] = Skill Domain
-[Parent Category] = null
-[Description] = null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-7. Click "Save"
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The parent category is created successfully and appeared on Parent Category box &amp; on Categories List
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Name] = Communication
-[Type] = Skills Domain
-[Parent Category] = BA
-[Description] = blank</t>
-    </r>
-  </si>
-  <si>
     <t>SM_18</t>
   </si>
   <si>
@@ -7841,90 +7430,10 @@
 - A category is created</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Click "Edit"
-2. Edit the information:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Name] = Test 
-(Edit: "Communicaton" -&gt; "Test")
-[Type] = Skills Domain
-[Parent Category] = BA
-[Description] = blank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Click "Save"
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The data is modified
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1.[Name] = Test
-2.[Type] = Skills Domain
-3.[Parent Category] = BA
-4.[Description] = blank</t>
-    </r>
-  </si>
-  <si>
     <t>SM_19</t>
   </si>
   <si>
     <t>Verify that the system confirm before discarding edit a category</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Click "Edit"
-2. Edit the information:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Name] = Test123 
-(Change: "Test" -&gt; "Test 123")</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3, Click "Discard"
-</t>
-    </r>
   </si>
   <si>
     <t>Show the message: 
@@ -7932,123 +7441,10 @@
 Are you sure you want to leave this page ? " with 2 options "OK" &amp; "Cancel"</t>
   </si>
   <si>
-    <t>SM_20</t>
-  </si>
-  <si>
-    <t>Verify that PM can postpone a request to discard editing a category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click "Edit"
-2. Edit the information:
-[Name] = Test123 
-(Edit: "Test" -&gt; "Test 123")
-3. Click "Discard"
-4. Click to button "Cancel" in confirm message
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cancel discard command &amp; return edit mode
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1.[Name] = Test123
-2.[Type] = Skills Domain
-3.[Parent Category] = BA
-4.[Description] = blank</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>SM_21</t>
   </si>
   <si>
     <t>Verify that PM can discard to edit a category</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Click "Edit"
-2. Edit the information:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Name] = Test123
-(Edit: "Test" -&gt; "Test 123")</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Click "Discard"
-4. Click to button "OK" in confirm message</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cancel the modification. The information of the category remains unchange.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1.[Name] = Test
-2.[Type] = Skills Domain
-3.[Parent Category] = BA
-4.[Description] = blank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t>SM_22</t>
@@ -8065,59 +7461,10 @@
 3. Click to  "Create"</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Show a form "New" allow user input data
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>The form includes:
-1. [Name]: blank
-2. [Skill Domain]: optional 
-3. [Description]: blank</t>
-    </r>
-  </si>
-  <si>
     <t>SM_23</t>
   </si>
   <si>
     <t>Verify that the fields "Name", " Type" are required fields</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Click to "Setting"
-2. Click to "Skills"
-3. Click to  "Create"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Name] = null
-[Skill Domain]= null
-[Description] = [blank]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-4. Click "Save"</t>
-    </r>
   </si>
   <si>
     <t>Show the message: 
@@ -8133,115 +7480,10 @@
     <t>Verify that user can create a new skill</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Click to "Setting"
-2. Click to "Skills"
-3. Click to  "Create"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Name] = Verbal
-[Skill Domain]= Comunication
-[Description] = blank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-4. Click "Save"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A new skill is created in Skills &amp; showed in Skill List
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1.[Name] = Verbal
-2,[Skill Domain] = Communication
-3.[Description] = blank</t>
-    </r>
-  </si>
-  <si>
     <t>SM_25</t>
   </si>
   <si>
-    <t>Settings/ Skills/ Skill Name</t>
-  </si>
-  <si>
     <t>Verify that user can edit the information of a skill</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Click to "Edit"
-2. Edit the information:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Name] = Non-verbal
-(Edit: "Verbal" -&gt; "Non-verbal")
-[Skill Domain]= Communication
-[Description] = blank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Click to "Save"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>The data is modified.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-[Name] = Non-verbal
-[Skill Domain]= Communication
-[Description] = blank</t>
-    </r>
   </si>
   <si>
     <t>SM_26</t>
@@ -8252,806 +7494,15 @@
 - A skill is created</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Click to "Edit"
-2. Edit the information:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Name] = Non-verbal
-(Edit: "Verbal" -&gt; "Non-verbal")
-[Skill Domain]= Communication
-[Description] = blank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Click to "Discard"
-</t>
-    </r>
-  </si>
-  <si>
-    <t>SM_27</t>
-  </si>
-  <si>
-    <t>Verify that user can postpone a request before discarding edit a skill</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Click to "Edit"
-2. Edit the information:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Name] = Non-verbal
-(Edit: "Verbal" -&gt; "Non-verbal")
-[Skill Domain]= Communication
-[Description] = blank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Click to "Discard"
-4. Click to button "Cancel" in confirm message</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cancel discard command &amp; return edit mode
-1.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Name] = Non-verbal
-2.[Skill Domain]= Communication
-3. [Description] = blank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>SM_28</t>
   </si>
   <si>
-    <t>Settings/ Skills/ Name Skill</t>
-  </si>
-  <si>
     <t>Verify that user can discard to edit a skill</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Click to "Edit"
-2. Edit the information:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Name] = Non-verbal
-(Edit: "Verbal" -&gt; "Non-verbal")
-[Skill Domain]= Communication
-[Description] = blank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Click to "Discard"
-4. Click to button "OK" in confirm message</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cancel the modification. The information of the category remains unchange.
-1.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Name] = Verbal
-2.[Skill Domain]= Communication
-3.[Description] = blank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>SM_29</t>
-  </si>
-  <si>
-    <t>Home/ Human Resources/ Employee</t>
-  </si>
-  <si>
-    <t>Verify that Employee List is displayed correctly</t>
   </si>
   <si>
     <t>- Logined as Admin/ Manager/ Employee
 - The category is created
 - The skill is created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click "Human Resource"
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Show List of Employee table
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">- Each row represent a employee
-- The table includes 7 columns:
-1. Checkbox
-2. Name
-3. Work Phone
-4.Work Email
-5.Department
-6. Job
-7. Manager </t>
-    </r>
-  </si>
-  <si>
-    <t>SM_30</t>
-  </si>
-  <si>
-    <t>Human Resources/ Employee/ Employee Name</t>
-  </si>
-  <si>
-    <t>Verify that the tab "Skill Information" is displayed correctly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logined as Admin/ Manager/ Employee
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Click " Human Resource"
-2.Select a employee in Employee List
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Select "Anh- Pham Thi Quynh Anh"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Click to tab "Skill Information"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Show tab "Skill Information" contains 4 sections
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1. Skills (Skill, Competency Level, Last Used)
-2.Certificates (Certificate, Last Used)
-3.Awards (Award, Last Used)
-4.Attackments</t>
-    </r>
-  </si>
-  <si>
-    <t>SM_31</t>
-  </si>
-  <si>
-    <t>Verify that form "Add skills" is displayed correctly</t>
-  </si>
-  <si>
-    <t>Logined as Admin/ Manager/ Employee</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Click " Human Resource"
-2.Select a employee in Employee List
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Select "Anh- Pham Thi Quynh Anh"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3. Click to button "Add skill"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Show the form "Add skills" allow user input data
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>The form includes:
-1.[Skill Domain] = droplist
-2. [Skill of Employee] = required field
-3. [Last Used] = default
-4. Competency Level = droplist (Level1 -Follow, Level 2 - Assist, Level 3 - Apply, Level 4 - Enable, Level 5 - Expert) (required field)</t>
-    </r>
-  </si>
-  <si>
-    <t>SM_32</t>
-  </si>
-  <si>
-    <t>Verify that the fields "Skill of Employee", "Competency Level" are required fields</t>
-  </si>
-  <si>
-    <t>- Logined as Logined as Admin/ Manager/ Employee
-- A category is created
-- A skill is created</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Click " Human Resource"
-2.Select a employee in Employee List
-- Select "Anh- Pham Thi Quynh Anh"
-3. Click to button "Add skill"
-4. Fill data to form "Add Skills":
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Skill Domain] = droplist
-[Skill of Employee] = null
-[Last Used] = 2016
-[Competency Level] = null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-5. Click to "Save"
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Show the message: 
-" The following fields are invalid:: 
-- Skill of Employee
-- Competency Level
-"</t>
-  </si>
-  <si>
-    <t>SM_33</t>
-  </si>
-  <si>
-    <t>Verify that user can add a new skill into "Skills" section on tab "Skill Information"</t>
-  </si>
-  <si>
-    <t>- Logined as Admin/ Manager/ Employee
-- The category "Communication" is created
-- The skill "Verbal" is created</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Click " Human Resource"
-2.Select a employee in Employee List
-Select "Anh- Pham Thi Quynh Anh"
-3. Click to button "Add skill"
-4. Fill data to form "Add Skills":
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Skill Domain] = Communication
-[Skill of Employee] = Verbal
-[Last Used] = 2016
-[Competency Level] = Level 2 - Assist</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-5. Click to "Save"
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The skill is added into Skills section on tab "Skill Information"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1. Skill = Verbal
-2. Competency Level = Level 2 - Assist
-3. Last Used = 2016</t>
-    </r>
-  </si>
-  <si>
-    <t>SM_34</t>
-  </si>
-  <si>
-    <t>Verify that user can modifying the data in "Skills" section</t>
-  </si>
-  <si>
-    <t>-Logined as Admin/ Manager/ Employee
-- A category is created
-- A skill is created
-- A skill is added</t>
-  </si>
-  <si>
-    <t>1. Click "Human Resource"
-2. Click "Skill Information' tab
-3. Click 'Edit"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User can modifying the data in tab "Skill Information"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1. [Skill] = droplist
-2. [Competency level] = droplist (Level1 -Follow, Level 2 - Assist, Level 3 - Apply, Level 4 - Enable, Level 5 - Expert)
-3. [Last Used] = box (can modify the data in box)
-4. Icon "Delete"</t>
-    </r>
-  </si>
-  <si>
-    <t>SM_35</t>
-  </si>
-  <si>
-    <t>Verify that user can save the modified data in "Skills" section</t>
-  </si>
-  <si>
-    <t>- Logined as Logined as Admin/ Manager/ Employee
-- A category is created
-- A skill is created
-- A skill is added to Skill section</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Click "Human Resource"
-2. Click "Skill Information' tab
-3. Click 'Edit"
-4. Edit the data
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Skill] = Agile 
-(Edit: "Verbal" -&gt; "Agile")
-[Competency level] = Level 3 - Apply
-(Edit: "Level 2" -&gt; "Level3" )
-[Last Used] = 2015
-(Edit: "2016" -&gt; "2015")</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-5. Click "Save"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The modified data is saved
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Skill] = Agile
-[Competency level] = Level 3 - Apply
-[Last Used] = 2015</t>
-    </r>
-  </si>
-  <si>
-    <t>SM_36</t>
-  </si>
-  <si>
-    <t>Verify that user can delete a skill in "Skills" section</t>
-  </si>
-  <si>
-    <t>- Logined as Logined as Admin/ Manager/ Employee
-- A skill is added to Skills section</t>
-  </si>
-  <si>
-    <t>1. Click "Human Resource"
-2. Click "Skill Information' tab
-3. Click 'Edit"
-4. Click to icon "Delete"</t>
-  </si>
-  <si>
-    <t>The skill is deleted from "Skills" section</t>
-  </si>
-  <si>
-    <t>SM_37</t>
-  </si>
-  <si>
-    <t>Verify that the system confirm before discarding edit data in Skills section</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Click "Human Resource"
-2. Click "Skill Information' tab
-3. Click 'Edit"
-4. Edit the data
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Skill] = Agile 
-(Edit: "Verbal" -&gt; "Agile")
-[Competency level] = Level 3 - Apply
-(Edit: "Level 2" -&gt; "Level3" )
-[Last Used] = 2015
-(Edit: "2016" -&gt; "2015")</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-5. Click "Discard"</t>
-    </r>
-  </si>
-  <si>
-    <t>SM_38</t>
-  </si>
-  <si>
-    <t>Verify that user can postpone a request before discarding edit data in Skills section</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Click "Human Resource"
-2. Click "Skill Information' tab
-3. Click 'Edit"
-4. Edit the data
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Skill] = Agile 
-(Edit: "Verbal" -&gt; "Agile")
-[Competency level] = Level 3 - Apply
-(Edit: "Level 2" -&gt; "Level3" )
-[Last Used] = 2015
-(Edit: "2016" -&gt; "2015")</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-5. Click "Discard"
-6. Click "Cancel" on confirm message</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cancel discard command &amp; return edit mode
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Skill] = Agile
-[Competency level] = Level 3 - Apply
-[Last Used] = 2015</t>
-    </r>
-  </si>
-  <si>
-    <t>SM_39</t>
-  </si>
-  <si>
-    <t>Verify that user can discard to edit data in Skills section</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Click "Human Resource"
-2. Click "Skill Information' tab
-3. Click 'Edit"
-4. Edit the data
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Skill] = Agile 
-(Edit: "Verbal" -&gt; "Agile")
-[Competency level] = Level 3 - Apply
-(Edit: "Level 2" -&gt; "Level3" )
-[Last Used] = 2015
-(Edit: "2016" -&gt; "2015")</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-5. Click "Discard"
-6. Click "OK" in confirm message.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cancel the modification. The information of the category remains unchange.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Skill] = Verbal
-[Competency level] = Level 2 - Assist
-[Last Used] = 2016</t>
-    </r>
-  </si>
-  <si>
-    <t>SM_40</t>
-  </si>
-  <si>
-    <t>Verify that Dept Head can approve the added skill</t>
-  </si>
-  <si>
-    <t>- Logined as Admin/ Manager
-- A skill is added to Skills section</t>
-  </si>
-  <si>
-    <t>1. Click "Human Resource"
-2. Click to "Approve"</t>
-  </si>
-  <si>
-    <t>The text color of name of this employee is changed from Black into Gray in Employees List</t>
-  </si>
-  <si>
-    <t>SM_41</t>
-  </si>
-  <si>
-    <t>Verify that Dept Head can refuse the add skill</t>
-  </si>
-  <si>
-    <t>1. Click "Human Resource"
-2. Clcik to "Refuse"</t>
-  </si>
-  <si>
-    <t>The text color of name of this employee is changed from Black into Red in Employees List</t>
-  </si>
-  <si>
-    <t>SM_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that Dept Head can filter skill </t>
-  </si>
-  <si>
-    <t>'- Logined as Admin/ Manager</t>
-  </si>
-  <si>
-    <t>- Acess Human Resources\ Employee
-- Click Filter\ Advance Search
-- Search Skills contain English
-- Click Apply</t>
-  </si>
-  <si>
-    <t>List of employee with English skill displayed correctly</t>
-  </si>
-  <si>
-    <t>SM_43</t>
-  </si>
-  <si>
-    <t>Verify that PMO can filter skill</t>
-  </si>
-  <si>
-    <t>'- Logined as PMO</t>
-  </si>
-  <si>
-    <t>SM_44</t>
-  </si>
-  <si>
-    <t>Verify that Dept Head can view statistic report</t>
-  </si>
-  <si>
-    <t>Access Reports\ Skill Statistic Report</t>
-  </si>
-  <si>
-    <t>Skill Statistic form displayed correctly with:
-- Department &lt; list of departments in company and VSII is all department&gt;
-- Report format</t>
-  </si>
-  <si>
-    <t>SM_45</t>
-  </si>
-  <si>
-    <t>Reports\ Skill Statistic Report</t>
-  </si>
-  <si>
-    <t>Verify that Dept Head export statistic report correctly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Access Reports\ Skill Statistic Report
-- Select TSC with csv format
-- Click Print
-</t>
-  </si>
-  <si>
-    <t>Report of statistic report displayed correctly with list of TSC member's skills</t>
   </si>
   <si>
     <t>Home\ ISMS Helpdesk</t>
@@ -11018,12 +9469,218 @@
   <si>
     <t>TC43</t>
   </si>
+  <si>
+    <t xml:space="preserve">OpenERP opens correctly
+Page Title
+Login box include Username, password
+</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>1.Input user name and password
+- Manager: lienlt/12345678    or
+- Admin : admin/12345678
+2.Click Submit</t>
+  </si>
+  <si>
+    <t>User is redirected to Homepage of member with Messaging, Project, Human Resources, ISMS Helpdesk, Invoicing, Tools, Reporting, Reports, Settings in navigator
+User Name in top right banner: lienlt/VSII Admin</t>
+  </si>
+  <si>
+    <t>1. Input user name and password
+anhptq/12345678
+2. Click Submit</t>
+  </si>
+  <si>
+    <t>User is redirected to Homepage of member with Messaging, Project, Human Resources, ISMS Helpdesk in navigator
+User Name in top right banner: anhptq</t>
+  </si>
+  <si>
+    <t>Show left nevigation bar includes 5 sections:
+1. Skills
+2. Certificates
+3. Awards
+4. Categories
+5.Organizers</t>
+  </si>
+  <si>
+    <t>Show Skills List table
+Each row represents a skill
+The table includes 3 columns:
+1. Checkbox
+2. Name
+3. Skill Domain</t>
+  </si>
+  <si>
+    <t>Show Categories table
+Each row represents a skill
+The table includes 3 columns:
+1. Checkbox
+2. Name
+3. Skill Domain
+4. Parent Category</t>
+  </si>
+  <si>
+    <t>Show a form "New" allow user input data
+The form includes:
+1. Name: blank
+2. Type: (Droplist: Skill Domain, Certificate Category, Award Category)
+3. Parent Category: blank
+4. Description; blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click to "Setting"
+2. Click to "Categories"
+3. Click to button "Create"
+4. Fill the form:
+[Name] = null
+[Type] = null
+[Parent Category] = null
+[Description] = null
+5. Click to "Save"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click to "Setting"
+2. Click to "Categories"
+3. Click to button "Create"
+4. Fill the form:
+[Name] = Communication
+[Type] = Skills Domain
+[Parent Category] = blank
+[Description] = blank
+5. Click to "Save"
+</t>
+  </si>
+  <si>
+    <t>A new category is created in Categories and showed in Categories List
+1.[Name] = Communication
+2.[Type] = Skills Domain
+3.[Parent Category] = blank
+4.[Description] = blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click "Edit"
+2. Edit the information:
+[Name] = Test 
+(Edit: "Communicaton" -&gt; "Test")
+[Type] = Skills Domain
+[Parent Category] = BA
+[Description] = blank
+3. Click "Save"
+</t>
+  </si>
+  <si>
+    <t>The data is modified
+1.[Name] = Test
+2.[Type] = Skills Domain
+3.[Parent Category] = BA
+4.[Description] = blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click "Edit"
+2. Edit the information:
+[Name] = Test123 
+(Change: "Test" -&gt; "Test 123")
+3, Click "Discard"
+</t>
+  </si>
+  <si>
+    <t>1. Click "Edit"
+2. Edit the information:
+[Name] = Test123
+(Edit: "Test" -&gt; "Test 123")
+3. Click "Discard"
+4. Click to button "OK" in confirm message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel the modification. The information of the category remains unchange.
+1.[Name] = Test
+2.[Type] = Skills Domain
+3.[Parent Category] = BA
+4.[Description] = blank
+</t>
+  </si>
+  <si>
+    <t>Show a form "New" allow user input data
+The form includes:
+1. [Name]: blank
+2. [Skill Domain]: optional 
+3. [Description]: blank</t>
+  </si>
+  <si>
+    <t>1. Click to "Setting"
+2. Click to "Skills"
+3. Click to  "Create"
+[Name] = null
+[Skill Domain]= null
+[Description] = [blank]
+4. Click "Save"</t>
+  </si>
+  <si>
+    <t>1. Click to "Setting"
+2. Click to "Skills"
+3. Click to  "Create"
+[Name] = Verbal
+[Skill Domain]= Comunication
+[Description] = blank
+4. Click "Save"</t>
+  </si>
+  <si>
+    <t>A new skill is created in Skills &amp; showed in Skill List
+1.[Name] = Verbal
+2,[Skill Domain] = Communication
+3.[Description] = blank</t>
+  </si>
+  <si>
+    <t>1. Click to "Edit"
+2. Edit the information:
+[Name] = Non-verbal
+(Edit: "Verbal" -&gt; "Non-verbal")
+[Skill Domain]= Communication
+[Description] = blank
+3. Click to "Save"</t>
+  </si>
+  <si>
+    <t>The data is modified.
+[Name] = Non-verbal
+[Skill Domain]= Communication
+[Description] = blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click to "Edit"
+2. Edit the information:
+[Name] = Non-verbal
+(Edit: "Verbal" -&gt; "Non-verbal")
+[Skill Domain]= Communication
+[Description] = blank
+3. Click to "Discard"
+</t>
+  </si>
+  <si>
+    <t>1. Click to "Edit"
+2. Edit the information:
+[Name] = Non-verbal
+(Edit: "Verbal" -&gt; "Non-verbal")
+[Skill Domain]= Communication
+[Description] = blank
+3. Click to "Discard"
+4. Click to button "OK" in confirm message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel the modification. The information of the category remains unchange.
+1.[Name] = Verbal
+2.[Skill Domain]= Communication
+3.[Description] = blank
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="39">
     <font>
       <sz val="11"/>
@@ -11289,7 +9946,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11314,8 +9971,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -11506,11 +10168,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11748,9 +10425,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -11769,6 +10443,30 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11852,6 +10550,30 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11942,6 +10664,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -11976,6 +10699,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12151,7 +10875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E21"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -12160,210 +10884,210 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="2.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:5">
-      <c r="A4" s="90" t="s">
-        <v>986</v>
-      </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
+      <c r="A4" s="113" t="s">
+        <v>865</v>
+      </c>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="90"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
     </row>
     <row r="6" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A6" s="91" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
+      <c r="A6" s="114" t="s">
+        <v>885</v>
+      </c>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
     </row>
     <row r="7" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
+      <c r="A7" s="115"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
     </row>
     <row r="8" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A8" s="92"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
     </row>
     <row r="9" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A9" s="92"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
     </row>
     <row r="11" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A11" s="92"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
     </row>
     <row r="12" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
     </row>
     <row r="13" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A13" s="93"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
     </row>
     <row r="14" spans="1:5" ht="15.75">
-      <c r="A14" s="87" t="s">
-        <v>987</v>
-      </c>
-      <c r="B14" s="88" t="s">
-        <v>988</v>
-      </c>
-      <c r="C14" s="88" t="s">
-        <v>989</v>
-      </c>
-      <c r="D14" s="88" t="s">
+      <c r="A14" s="86" t="s">
+        <v>866</v>
+      </c>
+      <c r="B14" s="87" t="s">
+        <v>867</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>868</v>
+      </c>
+      <c r="D14" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="89" t="s">
-        <v>990</v>
+      <c r="E14" s="88" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75">
-      <c r="A15" s="87">
+      <c r="A15" s="86">
         <v>1</v>
       </c>
-      <c r="B15" s="87" t="s">
-        <v>991</v>
-      </c>
-      <c r="C15" s="87">
+      <c r="B15" s="86" t="s">
+        <v>870</v>
+      </c>
+      <c r="C15" s="86">
         <v>32</v>
       </c>
-      <c r="D15" s="87" t="s">
-        <v>992</v>
+      <c r="D15" s="86" t="s">
+        <v>871</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>993</v>
+        <v>872</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75">
-      <c r="A16" s="87">
+      <c r="A16" s="86">
         <v>2</v>
       </c>
-      <c r="B16" s="87" t="s">
-        <v>994</v>
-      </c>
-      <c r="C16" s="87">
+      <c r="B16" s="86" t="s">
+        <v>873</v>
+      </c>
+      <c r="C16" s="86">
         <v>32</v>
       </c>
-      <c r="D16" s="87" t="s">
-        <v>992</v>
+      <c r="D16" s="86" t="s">
+        <v>871</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>995</v>
+        <v>874</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75">
-      <c r="A17" s="87">
+      <c r="A17" s="86">
         <v>3</v>
       </c>
-      <c r="B17" s="87" t="s">
-        <v>996</v>
-      </c>
-      <c r="C17" s="87">
+      <c r="B17" s="86" t="s">
+        <v>875</v>
+      </c>
+      <c r="C17" s="86">
         <v>37</v>
       </c>
-      <c r="D17" s="87" t="s">
-        <v>992</v>
+      <c r="D17" s="86" t="s">
+        <v>871</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>997</v>
+        <v>876</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="87">
+      <c r="A18" s="86">
         <v>4</v>
       </c>
-      <c r="B18" s="87" t="s">
-        <v>998</v>
-      </c>
-      <c r="C18" s="87">
+      <c r="B18" s="86" t="s">
+        <v>877</v>
+      </c>
+      <c r="C18" s="86">
         <v>45</v>
       </c>
-      <c r="D18" s="87" t="s">
-        <v>992</v>
+      <c r="D18" s="86" t="s">
+        <v>871</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>999</v>
+        <v>878</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="87">
+      <c r="A19" s="86">
         <v>5</v>
       </c>
-      <c r="B19" s="87" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C19" s="87">
+      <c r="B19" s="86" t="s">
+        <v>879</v>
+      </c>
+      <c r="C19" s="86">
         <v>33</v>
       </c>
-      <c r="D19" s="87" t="s">
-        <v>992</v>
+      <c r="D19" s="86" t="s">
+        <v>871</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>1001</v>
+        <v>880</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="87">
+      <c r="A20" s="86">
         <v>6</v>
       </c>
-      <c r="B20" s="87" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C20" s="87">
+      <c r="B20" s="86" t="s">
+        <v>881</v>
+      </c>
+      <c r="C20" s="86">
         <v>43</v>
       </c>
-      <c r="D20" s="87" t="s">
-        <v>992</v>
+      <c r="D20" s="86" t="s">
+        <v>871</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>1003</v>
+        <v>882</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75">
-      <c r="A21" s="87">
+      <c r="A21" s="86">
         <v>7</v>
       </c>
-      <c r="B21" s="87" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C21" s="87">
+      <c r="B21" s="86" t="s">
+        <v>883</v>
+      </c>
+      <c r="C21" s="86">
         <v>8</v>
       </c>
-      <c r="D21" s="87" t="s">
-        <v>992</v>
+      <c r="D21" s="86" t="s">
+        <v>871</v>
       </c>
       <c r="E21" s="54" t="s">
-        <v>1005</v>
+        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -12377,7 +11101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12386,35 +11110,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="32.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="36.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="43.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="32.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="30.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="20.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:8" ht="42" customHeight="1" thickBot="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="94"/>
+      <c r="B2" s="117"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="118" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="95"/>
+      <c r="B3" s="118"/>
       <c r="D3" s="5"/>
       <c r="E3" s="29" t="s">
         <v>1</v>
@@ -12428,10 +11152,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="119"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
         <v>3</v>
@@ -12469,49 +11193,49 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="124" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="122" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="127" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
+      <c r="A10" s="122"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="105"/>
+      <c r="G10" s="128"/>
       <c r="H10" s="27" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="106"/>
+      <c r="G11" s="129"/>
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="60" customHeight="1" outlineLevel="2">
@@ -13312,7 +12036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
@@ -13321,31 +12045,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="32.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="36.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="43.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="32.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="30.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="20.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
       <c r="D3" s="5"/>
       <c r="E3" s="29" t="s">
         <v>1</v>
@@ -13359,8 +12083,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
         <v>3</v>
@@ -13398,54 +12122,54 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="124" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="122" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="127" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
+      <c r="A10" s="122"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="105"/>
+      <c r="G10" s="128"/>
       <c r="H10" s="27" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="106"/>
+      <c r="G11" s="129"/>
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="57" outlineLevel="2">
       <c r="A12" s="14" t="s">
-        <v>1007</v>
+        <v>886</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>164</v>
@@ -13467,7 +12191,7 @@
     </row>
     <row r="13" spans="1:8" s="13" customFormat="1" ht="78" outlineLevel="2">
       <c r="A13" s="14" t="s">
-        <v>1008</v>
+        <v>887</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>164</v>
@@ -13491,7 +12215,7 @@
     </row>
     <row r="14" spans="1:8" ht="99" outlineLevel="2">
       <c r="A14" s="14" t="s">
-        <v>1009</v>
+        <v>888</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>172</v>
@@ -13515,7 +12239,7 @@
     </row>
     <row r="15" spans="1:8" ht="90">
       <c r="A15" s="14" t="s">
-        <v>1010</v>
+        <v>889</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>172</v>
@@ -13539,7 +12263,7 @@
     </row>
     <row r="16" spans="1:8" ht="105">
       <c r="A16" s="14" t="s">
-        <v>1011</v>
+        <v>890</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>172</v>
@@ -13563,7 +12287,7 @@
     </row>
     <row r="17" spans="1:8" ht="105">
       <c r="A17" s="14" t="s">
-        <v>1012</v>
+        <v>891</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>172</v>
@@ -13587,7 +12311,7 @@
     </row>
     <row r="18" spans="1:8" ht="339">
       <c r="A18" s="14" t="s">
-        <v>1013</v>
+        <v>892</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>187</v>
@@ -13611,7 +12335,7 @@
     </row>
     <row r="19" spans="1:8" ht="300">
       <c r="A19" s="14" t="s">
-        <v>1014</v>
+        <v>893</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>187</v>
@@ -13635,7 +12359,7 @@
     </row>
     <row r="20" spans="1:8" ht="90">
       <c r="A20" s="14" t="s">
-        <v>1015</v>
+        <v>894</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>172</v>
@@ -13659,7 +12383,7 @@
     </row>
     <row r="21" spans="1:8" ht="150">
       <c r="A21" s="14" t="s">
-        <v>1016</v>
+        <v>895</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>172</v>
@@ -13683,7 +12407,7 @@
     </row>
     <row r="22" spans="1:8" ht="150">
       <c r="A22" s="14" t="s">
-        <v>1017</v>
+        <v>896</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>172</v>
@@ -13707,7 +12431,7 @@
     </row>
     <row r="23" spans="1:8" ht="153">
       <c r="A23" s="14" t="s">
-        <v>1018</v>
+        <v>897</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>203</v>
@@ -13731,7 +12455,7 @@
     </row>
     <row r="24" spans="1:8" ht="150">
       <c r="A24" s="14" t="s">
-        <v>1019</v>
+        <v>898</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>203</v>
@@ -13755,7 +12479,7 @@
     </row>
     <row r="25" spans="1:8" ht="60">
       <c r="A25" s="14" t="s">
-        <v>1020</v>
+        <v>899</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>164</v>
@@ -13779,7 +12503,7 @@
     </row>
     <row r="26" spans="1:8" ht="120">
       <c r="A26" s="14" t="s">
-        <v>1021</v>
+        <v>900</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>214</v>
@@ -13803,7 +12527,7 @@
     </row>
     <row r="27" spans="1:8" ht="105">
       <c r="A27" s="14" t="s">
-        <v>1022</v>
+        <v>901</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>219</v>
@@ -13827,7 +12551,7 @@
     </row>
     <row r="28" spans="1:8" ht="150">
       <c r="A28" s="14" t="s">
-        <v>1023</v>
+        <v>902</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>203</v>
@@ -13851,7 +12575,7 @@
     </row>
     <row r="29" spans="1:8" ht="67.5">
       <c r="A29" s="14" t="s">
-        <v>1024</v>
+        <v>903</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>164</v>
@@ -13875,7 +12599,7 @@
     </row>
     <row r="30" spans="1:8" ht="156">
       <c r="A30" s="14" t="s">
-        <v>1025</v>
+        <v>904</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>229</v>
@@ -13899,7 +12623,7 @@
     </row>
     <row r="31" spans="1:8" ht="90">
       <c r="A31" s="14" t="s">
-        <v>1026</v>
+        <v>905</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>234</v>
@@ -13923,7 +12647,7 @@
     </row>
     <row r="32" spans="1:8" ht="90">
       <c r="A32" s="14" t="s">
-        <v>1027</v>
+        <v>906</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>234</v>
@@ -13947,7 +12671,7 @@
     </row>
     <row r="33" spans="1:8" ht="153">
       <c r="A33" s="14" t="s">
-        <v>1028</v>
+        <v>907</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>234</v>
@@ -13971,7 +12695,7 @@
     </row>
     <row r="34" spans="1:8" ht="165">
       <c r="A34" s="14" t="s">
-        <v>1029</v>
+        <v>908</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>203</v>
@@ -13995,7 +12719,7 @@
     </row>
     <row r="35" spans="1:8" ht="60">
       <c r="A35" s="14" t="s">
-        <v>1030</v>
+        <v>909</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>164</v>
@@ -14019,7 +12743,7 @@
     </row>
     <row r="36" spans="1:8" ht="183">
       <c r="A36" s="14" t="s">
-        <v>1031</v>
+        <v>910</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>254</v>
@@ -14043,7 +12767,7 @@
     </row>
     <row r="37" spans="1:8" ht="198">
       <c r="A37" s="14" t="s">
-        <v>1032</v>
+        <v>911</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>254</v>
@@ -14067,7 +12791,7 @@
     </row>
     <row r="38" spans="1:8" ht="45">
       <c r="A38" s="14" t="s">
-        <v>1033</v>
+        <v>912</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>262</v>
@@ -14091,7 +12815,7 @@
     </row>
     <row r="39" spans="1:8" ht="90">
       <c r="A39" s="14" t="s">
-        <v>1034</v>
+        <v>913</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>262</v>
@@ -14115,7 +12839,7 @@
     </row>
     <row r="40" spans="1:8" ht="150">
       <c r="A40" s="14" t="s">
-        <v>1035</v>
+        <v>914</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>203</v>
@@ -14139,7 +12863,7 @@
     </row>
     <row r="41" spans="1:8" ht="60">
       <c r="A41" s="14" t="s">
-        <v>1036</v>
+        <v>915</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>164</v>
@@ -14163,7 +12887,7 @@
     </row>
     <row r="42" spans="1:8" ht="60">
       <c r="A42" s="14" t="s">
-        <v>1037</v>
+        <v>916</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>214</v>
@@ -14187,7 +12911,7 @@
     </row>
     <row r="43" spans="1:8" ht="60">
       <c r="A43" s="14" t="s">
-        <v>1038</v>
+        <v>917</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>214</v>
@@ -14211,7 +12935,7 @@
     </row>
     <row r="44" spans="1:8" ht="135">
       <c r="A44" s="14" t="s">
-        <v>1039</v>
+        <v>918</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>203</v>
@@ -14235,7 +12959,7 @@
     </row>
     <row r="45" spans="1:8" ht="60">
       <c r="A45" s="14" t="s">
-        <v>1040</v>
+        <v>919</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>164</v>
@@ -14258,7 +12982,7 @@
     </row>
     <row r="46" spans="1:8" ht="240">
       <c r="A46" s="14" t="s">
-        <v>1041</v>
+        <v>920</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>287</v>
@@ -14281,7 +13005,7 @@
     </row>
     <row r="47" spans="1:8" ht="189">
       <c r="A47" s="14" t="s">
-        <v>1042</v>
+        <v>921</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>292</v>
@@ -14302,7 +13026,7 @@
     </row>
     <row r="48" spans="1:8" ht="120">
       <c r="A48" s="14" t="s">
-        <v>1043</v>
+        <v>922</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>203</v>
@@ -14346,7 +13070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H43"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -14355,30 +13079,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="32.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="36.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="43.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="32.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="30.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="20.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
       <c r="D3" s="5"/>
       <c r="E3" s="29" t="s">
         <v>1</v>
@@ -14392,8 +13116,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
         <v>3</v>
@@ -14431,49 +13155,49 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="124" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="122" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="127" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
+      <c r="A10" s="122"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="105"/>
+      <c r="G10" s="128"/>
       <c r="H10" s="27" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="106"/>
+      <c r="G11" s="129"/>
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="114">
@@ -15260,39 +13984,39 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="32.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="36.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="43.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="32.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="30.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="20.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
       <c r="D3" s="5"/>
       <c r="E3" s="29" t="s">
         <v>1</v>
@@ -15306,8 +14030,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
         <v>3</v>
@@ -15345,49 +14069,49 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="124" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="122" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="127" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
+      <c r="A10" s="122"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="105"/>
+      <c r="G10" s="128"/>
       <c r="H10" s="27" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="106"/>
+      <c r="G11" s="129"/>
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="217.5">
@@ -15407,7 +14131,7 @@
         <v>444</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>1044</v>
+        <v>923</v>
       </c>
       <c r="G12" s="47"/>
       <c r="H12" s="18"/>
@@ -15589,7 +14313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
@@ -15598,30 +14322,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="64" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="64" width="22.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="56" width="32.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="58" width="36.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="58" width="43.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="58" width="32.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="66" width="30.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="58" width="20.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="58" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15" style="64" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" style="64" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.5703125" style="56" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.85546875" style="58" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.85546875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.7109375" style="58" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.7109375" style="66" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.28515625" style="58" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="58" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
       <c r="D2" s="57"/>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="115"/>
       <c r="D3" s="57"/>
       <c r="E3" s="60" t="s">
         <v>1</v>
@@ -15635,8 +14359,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="133"/>
       <c r="D4" s="57"/>
       <c r="E4" s="63" t="s">
         <v>3</v>
@@ -15674,49 +14398,49 @@
       <c r="H8" s="69"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="134" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="72"/>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="138" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
       <c r="F10" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="116"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="74" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
       <c r="F11" s="76"/>
-      <c r="G11" s="117"/>
+      <c r="G11" s="140"/>
       <c r="H11" s="76"/>
     </row>
     <row r="12" spans="1:8" s="78" customFormat="1" ht="119.25">
@@ -16483,39 +15207,39 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="64" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="64" width="22.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="59" width="32.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="58" width="36.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="58" width="43.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="58" width="32.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="66" width="30.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="58" width="20.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="58" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15" style="64" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" style="64" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.5703125" style="59" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.85546875" style="58" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.85546875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.7109375" style="58" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.7109375" style="66" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.28515625" style="58" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="58" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
       <c r="D2" s="57"/>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="115"/>
       <c r="D3" s="57"/>
       <c r="E3" s="60" t="s">
         <v>1</v>
@@ -16529,8 +15253,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="133"/>
       <c r="D4" s="57"/>
       <c r="E4" s="63" t="s">
         <v>3</v>
@@ -16568,1125 +15292,797 @@
       <c r="H8" s="69"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="134" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="73"/>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="138" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="73"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
       <c r="F10" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="116"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="75" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
       <c r="F11" s="77"/>
-      <c r="G11" s="117"/>
+      <c r="G11" s="140"/>
       <c r="H11" s="77"/>
     </row>
-    <row r="12" spans="1:8" s="78" customFormat="1" ht="57">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:8" s="78" customFormat="1" ht="15">
+      <c r="A12" s="141" t="s">
         <v>624</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="142" t="s">
         <v>625</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34" t="s">
+      <c r="D12" s="143" t="s">
+        <v>628</v>
+      </c>
+      <c r="E12" s="144" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="32" t="s">
-        <v>167</v>
+      <c r="F12" s="142" t="s">
+        <v>967</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" s="78" customFormat="1" ht="90">
-      <c r="A13" s="14" t="s">
+      <c r="H12" s="89" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="78" customFormat="1" ht="15">
+      <c r="A13" s="141" t="s">
         <v>626</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="142" t="s">
         <v>627</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>628</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>629</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>630</v>
+      <c r="D13" s="143" t="s">
+        <v>631</v>
+      </c>
+      <c r="E13" s="144" t="s">
+        <v>969</v>
+      </c>
+      <c r="F13" s="142" t="s">
+        <v>970</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:8" ht="60">
-      <c r="A14" s="14" t="s">
-        <v>631</v>
+      <c r="H13" s="90" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="141" t="s">
+        <v>629</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>632</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>633</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>634</v>
-      </c>
-      <c r="F14" s="32" t="s">
+      <c r="C14" s="142" t="s">
+        <v>630</v>
+      </c>
+      <c r="D14" s="143" t="s">
         <v>635</v>
+      </c>
+      <c r="E14" s="144" t="s">
+        <v>971</v>
+      </c>
+      <c r="F14" s="142" t="s">
+        <v>972</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" ht="90">
-      <c r="A15" s="14" t="s">
+      <c r="H14" s="91" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="141" t="s">
+        <v>632</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="C15" s="142" t="s">
+        <v>634</v>
+      </c>
+      <c r="D15" s="142" t="s">
+        <v>635</v>
+      </c>
+      <c r="E15" s="145" t="s">
         <v>636</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>638</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>640</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>641</v>
+      <c r="F15" s="142" t="s">
+        <v>973</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" ht="75">
-      <c r="A16" s="14" t="s">
-        <v>642</v>
+      <c r="H15" s="92" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="141" t="s">
+        <v>637</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>643</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>644</v>
-      </c>
-      <c r="D16" s="32" t="s">
+        <v>638</v>
+      </c>
+      <c r="C16" s="146" t="s">
         <v>639</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>645</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>646</v>
+      <c r="D16" s="142" t="s">
+        <v>635</v>
+      </c>
+      <c r="E16" s="146" t="s">
+        <v>640</v>
+      </c>
+      <c r="F16" s="146" t="s">
+        <v>974</v>
       </c>
       <c r="G16" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" ht="75">
-      <c r="A17" s="14" t="s">
-        <v>647</v>
+      <c r="H16" s="93" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="141" t="s">
+        <v>641</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="C17" s="146" t="s">
+        <v>642</v>
+      </c>
+      <c r="D17" s="142" t="s">
+        <v>635</v>
+      </c>
+      <c r="E17" s="146" t="s">
         <v>643</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>648</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>649</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>650</v>
+      <c r="F17" s="146" t="s">
+        <v>644</v>
       </c>
       <c r="G17" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:8" ht="90">
-      <c r="A18" s="14" t="s">
-        <v>651</v>
+      <c r="H17" s="94" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="141" t="s">
+        <v>645</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>643</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>652</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>653</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>654</v>
+        <v>638</v>
+      </c>
+      <c r="C18" s="146" t="s">
+        <v>646</v>
+      </c>
+      <c r="D18" s="142" t="s">
+        <v>635</v>
+      </c>
+      <c r="E18" s="146" t="s">
+        <v>647</v>
+      </c>
+      <c r="F18" s="146" t="s">
+        <v>648</v>
       </c>
       <c r="G18" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" ht="90">
-      <c r="A19" s="14" t="s">
-        <v>655</v>
+      <c r="H18" s="95" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="141" t="s">
+        <v>649</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>643</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>656</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>657</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>658</v>
+        <v>638</v>
+      </c>
+      <c r="C19" s="146" t="s">
+        <v>650</v>
+      </c>
+      <c r="D19" s="142" t="s">
+        <v>635</v>
+      </c>
+      <c r="E19" s="146" t="s">
+        <v>651</v>
+      </c>
+      <c r="F19" s="146" t="s">
+        <v>652</v>
       </c>
       <c r="G19" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8" ht="87">
-      <c r="A20" s="14" t="s">
-        <v>659</v>
+      <c r="H19" s="96" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="141" t="s">
+        <v>653</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>660</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>661</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>662</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>663</v>
+        <v>654</v>
+      </c>
+      <c r="C20" s="146" t="s">
+        <v>655</v>
+      </c>
+      <c r="D20" s="142" t="s">
+        <v>635</v>
+      </c>
+      <c r="E20" s="146" t="s">
+        <v>656</v>
+      </c>
+      <c r="F20" s="146" t="s">
+        <v>975</v>
       </c>
       <c r="G20" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" ht="75">
-      <c r="A21" s="14" t="s">
-        <v>664</v>
+      <c r="H20" s="97" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="141" t="s">
+        <v>657</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>660</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>665</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>666</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>650</v>
+        <v>654</v>
+      </c>
+      <c r="C21" s="146" t="s">
+        <v>658</v>
+      </c>
+      <c r="D21" s="142" t="s">
+        <v>635</v>
+      </c>
+      <c r="E21" s="146" t="s">
+        <v>659</v>
+      </c>
+      <c r="F21" s="146" t="s">
+        <v>644</v>
       </c>
       <c r="G21" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" ht="90">
-      <c r="A22" s="14" t="s">
-        <v>667</v>
+      <c r="H21" s="98" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="141" t="s">
+        <v>660</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>660</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>668</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>669</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>670</v>
+        <v>654</v>
+      </c>
+      <c r="C22" s="146" t="s">
+        <v>661</v>
+      </c>
+      <c r="D22" s="142" t="s">
+        <v>635</v>
+      </c>
+      <c r="E22" s="146" t="s">
+        <v>662</v>
+      </c>
+      <c r="F22" s="146" t="s">
+        <v>663</v>
       </c>
       <c r="G22" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" ht="90">
-      <c r="A23" s="14" t="s">
-        <v>671</v>
+      <c r="H22" s="99" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="141" t="s">
+        <v>664</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>660</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>672</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>673</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>674</v>
+        <v>654</v>
+      </c>
+      <c r="C23" s="146" t="s">
+        <v>665</v>
+      </c>
+      <c r="D23" s="142" t="s">
+        <v>635</v>
+      </c>
+      <c r="E23" s="146" t="s">
+        <v>666</v>
+      </c>
+      <c r="F23" s="146" t="s">
+        <v>667</v>
       </c>
       <c r="G23" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" ht="105">
-      <c r="A24" s="14" t="s">
-        <v>675</v>
+      <c r="H23" s="100" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30">
+      <c r="A24" s="141" t="s">
+        <v>668</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>676</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>677</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>678</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>679</v>
+        <v>669</v>
+      </c>
+      <c r="C24" s="146" t="s">
+        <v>670</v>
+      </c>
+      <c r="D24" s="142" t="s">
+        <v>635</v>
+      </c>
+      <c r="E24" s="146" t="s">
+        <v>671</v>
+      </c>
+      <c r="F24" s="146" t="s">
+        <v>976</v>
       </c>
       <c r="G24" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" ht="141">
-      <c r="A25" s="14" t="s">
-        <v>680</v>
+      <c r="H24" s="101" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30">
+      <c r="A25" s="141" t="s">
+        <v>672</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>676</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>683</v>
+        <v>669</v>
+      </c>
+      <c r="C25" s="146" t="s">
+        <v>673</v>
+      </c>
+      <c r="D25" s="142" t="s">
+        <v>635</v>
+      </c>
+      <c r="E25" s="146" t="s">
+        <v>977</v>
+      </c>
+      <c r="F25" s="147" t="s">
+        <v>674</v>
       </c>
       <c r="G25" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" ht="141">
-      <c r="A26" s="14" t="s">
-        <v>684</v>
+      <c r="H25" s="102" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30">
+      <c r="A26" s="141" t="s">
+        <v>675</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>686</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>687</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>688</v>
+        <v>676</v>
+      </c>
+      <c r="C26" s="146" t="s">
+        <v>677</v>
+      </c>
+      <c r="D26" s="142" t="s">
+        <v>635</v>
+      </c>
+      <c r="E26" s="146" t="s">
+        <v>978</v>
+      </c>
+      <c r="F26" s="146" t="s">
+        <v>979</v>
       </c>
       <c r="G26" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="1:8" ht="141">
-      <c r="A27" s="14" t="s">
-        <v>689</v>
+      <c r="H26" s="103" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30">
+      <c r="A27" s="141" t="s">
+        <v>678</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>690</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>691</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>692</v>
+        <v>676</v>
+      </c>
+      <c r="C27" s="146" t="s">
+        <v>680</v>
+      </c>
+      <c r="D27" s="142" t="s">
+        <v>681</v>
+      </c>
+      <c r="E27" s="146" t="s">
+        <v>980</v>
+      </c>
+      <c r="F27" s="146" t="s">
+        <v>981</v>
       </c>
       <c r="G27" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" ht="237">
-      <c r="A28" s="14" t="s">
-        <v>693</v>
+      <c r="H27" s="104" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30">
+      <c r="A28" s="141" t="s">
+        <v>682</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>694</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>639</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>695</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>696</v>
+        <v>676</v>
+      </c>
+      <c r="C28" s="146" t="s">
+        <v>683</v>
+      </c>
+      <c r="D28" s="143" t="s">
+        <v>681</v>
+      </c>
+      <c r="E28" s="146" t="s">
+        <v>982</v>
+      </c>
+      <c r="F28" s="146" t="s">
+        <v>684</v>
       </c>
       <c r="G28" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" ht="123">
-      <c r="A29" s="14" t="s">
-        <v>697</v>
+      <c r="H28" s="105" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30">
+      <c r="A29" s="141" t="s">
+        <v>685</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>698</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>699</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>700</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>701</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>702</v>
+        <v>679</v>
+      </c>
+      <c r="C29" s="146" t="s">
+        <v>686</v>
+      </c>
+      <c r="D29" s="147" t="s">
+        <v>681</v>
+      </c>
+      <c r="E29" s="146" t="s">
+        <v>983</v>
+      </c>
+      <c r="F29" s="146" t="s">
+        <v>984</v>
       </c>
       <c r="G29" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" ht="105">
-      <c r="A30" s="14" t="s">
-        <v>703</v>
+      <c r="H29" s="106" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30">
+      <c r="A30" s="141" t="s">
+        <v>687</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>704</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>700</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>705</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>706</v>
+        <v>676</v>
+      </c>
+      <c r="C30" s="146" t="s">
+        <v>689</v>
+      </c>
+      <c r="D30" s="147" t="s">
+        <v>681</v>
+      </c>
+      <c r="E30" s="146" t="s">
+        <v>690</v>
+      </c>
+      <c r="F30" s="146" t="s">
+        <v>985</v>
       </c>
       <c r="G30" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" ht="111">
-      <c r="A31" s="14" t="s">
-        <v>707</v>
+      <c r="H30" s="107" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30">
+      <c r="A31" s="141" t="s">
+        <v>691</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>708</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>700</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>709</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>710</v>
+        <v>676</v>
+      </c>
+      <c r="C31" s="148" t="s">
+        <v>692</v>
+      </c>
+      <c r="D31" s="147" t="s">
+        <v>681</v>
+      </c>
+      <c r="E31" s="146" t="s">
+        <v>986</v>
+      </c>
+      <c r="F31" s="146" t="s">
+        <v>693</v>
       </c>
       <c r="G31" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" ht="111">
-      <c r="A32" s="14" t="s">
-        <v>711</v>
+      <c r="H31" s="108" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30">
+      <c r="A32" s="141" t="s">
+        <v>694</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>712</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>700</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>713</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>714</v>
+        <v>676</v>
+      </c>
+      <c r="C32" s="148" t="s">
+        <v>696</v>
+      </c>
+      <c r="D32" s="147" t="s">
+        <v>681</v>
+      </c>
+      <c r="E32" s="146" t="s">
+        <v>987</v>
+      </c>
+      <c r="F32" s="146" t="s">
+        <v>988</v>
       </c>
       <c r="G32" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" ht="78">
-      <c r="A33" s="14" t="s">
-        <v>715</v>
+      <c r="H32" s="109" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="141" t="s">
+        <v>697</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="D33" s="37" t="s">
+        <v>688</v>
+      </c>
+      <c r="C33" s="146" t="s">
+        <v>698</v>
+      </c>
+      <c r="D33" s="147" t="s">
         <v>700</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>718</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>719</v>
+      <c r="E33" s="146" t="s">
+        <v>989</v>
+      </c>
+      <c r="F33" s="146" t="s">
+        <v>990</v>
       </c>
       <c r="G33" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="1:8" ht="99">
-      <c r="A34" s="14" t="s">
-        <v>720</v>
+      <c r="H33" s="110" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="141" t="s">
+        <v>699</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>721</v>
-      </c>
-      <c r="D34" s="37" t="s">
+        <v>688</v>
+      </c>
+      <c r="C34" s="146" t="s">
+        <v>683</v>
+      </c>
+      <c r="D34" s="147" t="s">
         <v>700</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>722</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>723</v>
+      <c r="E34" s="146" t="s">
+        <v>991</v>
+      </c>
+      <c r="F34" s="146" t="s">
+        <v>684</v>
       </c>
       <c r="G34" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" spans="1:8" ht="99">
-      <c r="A35" s="14" t="s">
-        <v>724</v>
+      <c r="H34" s="111" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="141" t="s">
+        <v>701</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>725</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>726</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>700</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>727</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>728</v>
+        <v>695</v>
+      </c>
+      <c r="C35" s="146" t="s">
+        <v>702</v>
+      </c>
+      <c r="D35" s="147" t="s">
+        <v>703</v>
+      </c>
+      <c r="E35" s="146" t="s">
+        <v>992</v>
+      </c>
+      <c r="F35" s="146" t="s">
+        <v>993</v>
       </c>
       <c r="G35" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="1:8" ht="96">
-      <c r="A36" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>730</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>731</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>700</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>732</v>
-      </c>
-      <c r="F36" s="81" t="s">
-        <v>733</v>
-      </c>
-      <c r="G36" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" spans="1:8" ht="126">
-      <c r="A37" s="14" t="s">
-        <v>734</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>730</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>704</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>735</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>706</v>
-      </c>
-      <c r="G37" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:8" ht="111">
-      <c r="A38" s="14" t="s">
-        <v>737</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>730</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>738</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>735</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>739</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>740</v>
-      </c>
-      <c r="G38" s="80" t="s">
-        <v>177</v>
-      </c>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="1:8" ht="117">
-      <c r="A39" s="14" t="s">
-        <v>741</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>742</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>743</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>735</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>744</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>745</v>
-      </c>
-      <c r="G39" s="80" t="s">
-        <v>177</v>
-      </c>
-      <c r="H39" s="16"/>
-    </row>
-    <row r="40" spans="1:8" ht="123">
-      <c r="A40" s="14" t="s">
-        <v>746</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>748</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>749</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>750</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>751</v>
-      </c>
-      <c r="G40" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" spans="1:8" ht="90">
-      <c r="A41" s="14" t="s">
-        <v>752</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>754</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>755</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>756</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>757</v>
-      </c>
-      <c r="G41" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" spans="1:8" ht="126">
-      <c r="A42" s="14" t="s">
-        <v>758</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>759</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>760</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>761</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>762</v>
-      </c>
-      <c r="G42" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="16"/>
-    </row>
-    <row r="43" spans="1:8" ht="171">
-      <c r="A43" s="14" t="s">
-        <v>763</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>764</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>765</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>766</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>767</v>
-      </c>
-      <c r="G43" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" spans="1:8" ht="171">
-      <c r="A44" s="14" t="s">
-        <v>768</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>769</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>770</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>771</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>772</v>
-      </c>
-      <c r="G44" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="16"/>
-    </row>
-    <row r="45" spans="1:8" ht="114">
-      <c r="A45" s="14" t="s">
-        <v>773</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>775</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>776</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="G45" s="80"/>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="46" spans="1:8" ht="150">
-      <c r="A46" s="14" t="s">
-        <v>778</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>779</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>780</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>781</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>782</v>
-      </c>
-      <c r="G46" s="80"/>
-      <c r="H46" s="16"/>
-    </row>
-    <row r="47" spans="1:8" ht="60">
-      <c r="A47" s="14" t="s">
-        <v>783</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>784</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>785</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>786</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>787</v>
-      </c>
-      <c r="G47" s="80"/>
-      <c r="H47" s="16"/>
-    </row>
-    <row r="48" spans="1:8" ht="150">
-      <c r="A48" s="14" t="s">
-        <v>788</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>789</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>785</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>790</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>706</v>
-      </c>
-      <c r="G48" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" spans="1:8" ht="165">
-      <c r="A49" s="14" t="s">
-        <v>791</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>792</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>785</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>793</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>794</v>
-      </c>
-      <c r="G49" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" spans="1:8" ht="165">
-      <c r="A50" s="14" t="s">
-        <v>795</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>796</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>785</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="G50" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="H50" s="16"/>
-    </row>
-    <row r="51" spans="1:8" ht="45">
-      <c r="A51" s="14" t="s">
-        <v>799</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>800</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>801</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>802</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>803</v>
-      </c>
-      <c r="G51" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="16"/>
-    </row>
-    <row r="52" spans="1:8" ht="45">
-      <c r="A52" s="14" t="s">
-        <v>804</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>805</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>801</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>806</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>807</v>
-      </c>
-      <c r="G52" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="16"/>
-    </row>
-    <row r="53" spans="1:8" ht="60">
-      <c r="A53" s="14" t="s">
-        <v>808</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>809</v>
-      </c>
-      <c r="D53" s="79" t="s">
-        <v>810</v>
-      </c>
-      <c r="E53" s="79" t="s">
-        <v>811</v>
-      </c>
-      <c r="F53" s="42" t="s">
-        <v>812</v>
-      </c>
-      <c r="G53" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="16"/>
-    </row>
-    <row r="54" spans="1:8" ht="60">
-      <c r="A54" s="14" t="s">
-        <v>813</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>814</v>
-      </c>
-      <c r="D54" s="79" t="s">
-        <v>815</v>
-      </c>
-      <c r="E54" s="79" t="s">
-        <v>811</v>
-      </c>
-      <c r="F54" s="42" t="s">
-        <v>812</v>
-      </c>
-      <c r="G54" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="16"/>
-    </row>
-    <row r="55" spans="1:8" ht="90">
-      <c r="A55" s="14" t="s">
-        <v>816</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="C55" s="42" t="s">
-        <v>817</v>
-      </c>
-      <c r="D55" s="79" t="s">
-        <v>810</v>
-      </c>
-      <c r="E55" s="42" t="s">
-        <v>818</v>
-      </c>
-      <c r="F55" s="52" t="s">
-        <v>819</v>
-      </c>
-      <c r="G55" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="16"/>
-    </row>
-    <row r="56" spans="1:8" ht="60">
-      <c r="A56" s="14" t="s">
-        <v>820</v>
-      </c>
-      <c r="B56" s="47" t="s">
-        <v>821</v>
-      </c>
-      <c r="C56" s="42" t="s">
-        <v>822</v>
-      </c>
-      <c r="D56" s="79" t="s">
-        <v>810</v>
-      </c>
-      <c r="E56" s="43" t="s">
-        <v>823</v>
-      </c>
-      <c r="F56" s="52" t="s">
-        <v>824</v>
-      </c>
-      <c r="G56" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="16"/>
+      <c r="H35" s="112" t="s">
+        <v>968</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="130">
+    <mergeCell ref="A35"/>
+    <mergeCell ref="C35"/>
+    <mergeCell ref="D35"/>
+    <mergeCell ref="E35"/>
+    <mergeCell ref="F35"/>
+    <mergeCell ref="A34"/>
+    <mergeCell ref="C34"/>
+    <mergeCell ref="D34"/>
+    <mergeCell ref="E34"/>
+    <mergeCell ref="F34"/>
+    <mergeCell ref="A33"/>
+    <mergeCell ref="C33"/>
+    <mergeCell ref="D33"/>
+    <mergeCell ref="E33"/>
+    <mergeCell ref="F33"/>
+    <mergeCell ref="A32"/>
+    <mergeCell ref="C32"/>
+    <mergeCell ref="D32"/>
+    <mergeCell ref="E32"/>
+    <mergeCell ref="F32"/>
+    <mergeCell ref="A31"/>
+    <mergeCell ref="C31"/>
+    <mergeCell ref="D31"/>
+    <mergeCell ref="E31"/>
+    <mergeCell ref="F31"/>
+    <mergeCell ref="A30"/>
+    <mergeCell ref="C30"/>
+    <mergeCell ref="D30"/>
+    <mergeCell ref="E30"/>
+    <mergeCell ref="F30"/>
+    <mergeCell ref="A29"/>
+    <mergeCell ref="C29"/>
+    <mergeCell ref="D29"/>
+    <mergeCell ref="E29"/>
+    <mergeCell ref="F29"/>
+    <mergeCell ref="A28"/>
+    <mergeCell ref="C28"/>
+    <mergeCell ref="D28"/>
+    <mergeCell ref="E28"/>
+    <mergeCell ref="F28"/>
+    <mergeCell ref="A27"/>
+    <mergeCell ref="C27"/>
+    <mergeCell ref="D27"/>
+    <mergeCell ref="E27"/>
+    <mergeCell ref="F27"/>
+    <mergeCell ref="A26"/>
+    <mergeCell ref="C26"/>
+    <mergeCell ref="D26"/>
+    <mergeCell ref="E26"/>
+    <mergeCell ref="F26"/>
+    <mergeCell ref="A25"/>
+    <mergeCell ref="C25"/>
+    <mergeCell ref="D25"/>
+    <mergeCell ref="E25"/>
+    <mergeCell ref="F25"/>
+    <mergeCell ref="A24"/>
+    <mergeCell ref="C24"/>
+    <mergeCell ref="D24"/>
+    <mergeCell ref="E24"/>
+    <mergeCell ref="F24"/>
+    <mergeCell ref="A23"/>
+    <mergeCell ref="C23"/>
+    <mergeCell ref="D23"/>
+    <mergeCell ref="E23"/>
+    <mergeCell ref="F23"/>
+    <mergeCell ref="A22"/>
+    <mergeCell ref="C22"/>
+    <mergeCell ref="D22"/>
+    <mergeCell ref="E22"/>
+    <mergeCell ref="F22"/>
+    <mergeCell ref="A21"/>
+    <mergeCell ref="C21"/>
+    <mergeCell ref="D21"/>
+    <mergeCell ref="E21"/>
+    <mergeCell ref="F21"/>
+    <mergeCell ref="A20"/>
+    <mergeCell ref="C20"/>
+    <mergeCell ref="D20"/>
+    <mergeCell ref="E20"/>
+    <mergeCell ref="F20"/>
+    <mergeCell ref="A19"/>
+    <mergeCell ref="C19"/>
+    <mergeCell ref="D19"/>
+    <mergeCell ref="E19"/>
+    <mergeCell ref="F19"/>
+    <mergeCell ref="A18"/>
+    <mergeCell ref="C18"/>
+    <mergeCell ref="D18"/>
+    <mergeCell ref="E18"/>
+    <mergeCell ref="F18"/>
+    <mergeCell ref="A17"/>
+    <mergeCell ref="C17"/>
+    <mergeCell ref="D17"/>
+    <mergeCell ref="E17"/>
+    <mergeCell ref="F17"/>
+    <mergeCell ref="A16"/>
+    <mergeCell ref="C16"/>
+    <mergeCell ref="D16"/>
+    <mergeCell ref="E16"/>
+    <mergeCell ref="F16"/>
+    <mergeCell ref="A15"/>
+    <mergeCell ref="C15"/>
+    <mergeCell ref="D15"/>
+    <mergeCell ref="E15"/>
+    <mergeCell ref="F15"/>
+    <mergeCell ref="A14"/>
+    <mergeCell ref="C14"/>
+    <mergeCell ref="D14"/>
+    <mergeCell ref="E14"/>
+    <mergeCell ref="F14"/>
+    <mergeCell ref="A13"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="D13"/>
+    <mergeCell ref="E13"/>
+    <mergeCell ref="F13"/>
+    <mergeCell ref="A12"/>
+    <mergeCell ref="C12"/>
+    <mergeCell ref="D12"/>
+    <mergeCell ref="E12"/>
+    <mergeCell ref="F12"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="A3:B3"/>
@@ -17697,11 +16093,6 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="G9:G11"/>
-    <mergeCell ref="A1"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="D1"/>
-    <mergeCell ref="E1"/>
-    <mergeCell ref="F1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G52">
@@ -17713,7 +16104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17722,30 +16113,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="64" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="64" width="22.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="56" width="32.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="58" width="36.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="58" width="43.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="58" width="32.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="66" width="30.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="58" width="20.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="58" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15" style="64" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" style="64" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.5703125" style="56" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.85546875" style="58" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.85546875" style="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.7109375" style="58" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.7109375" style="66" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.28515625" style="58" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="58" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
       <c r="D2" s="57"/>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="115"/>
       <c r="D3" s="57"/>
       <c r="E3" s="60" t="s">
         <v>1</v>
@@ -17759,8 +16150,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="133"/>
       <c r="D4" s="57"/>
       <c r="E4" s="63" t="s">
         <v>3</v>
@@ -17798,54 +16189,54 @@
       <c r="H8" s="69"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="134" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="72"/>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="138" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
       <c r="F10" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="116"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="74" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
       <c r="F11" s="76"/>
-      <c r="G11" s="117"/>
+      <c r="G11" s="140"/>
       <c r="H11" s="76"/>
     </row>
     <row r="12" spans="1:8" s="78" customFormat="1" ht="57">
       <c r="A12" s="14" t="s">
-        <v>1045</v>
+        <v>924</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>164</v>
@@ -17867,22 +16258,22 @@
     </row>
     <row r="13" spans="1:8" s="78" customFormat="1" ht="105">
       <c r="A13" s="14" t="s">
-        <v>1046</v>
+        <v>925</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>825</v>
+        <v>704</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>826</v>
+        <v>705</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>827</v>
+        <v>706</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>828</v>
+        <v>707</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>829</v>
+        <v>708</v>
       </c>
       <c r="G13" s="80" t="s">
         <v>177</v>
@@ -17891,22 +16282,22 @@
     </row>
     <row r="14" spans="1:8" ht="69">
       <c r="A14" s="14" t="s">
-        <v>1047</v>
+        <v>926</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>825</v>
+        <v>704</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>826</v>
+        <v>705</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>830</v>
+        <v>709</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>828</v>
+        <v>707</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>831</v>
+        <v>710</v>
       </c>
       <c r="G14" s="80" t="s">
         <v>177</v>
@@ -17915,22 +16306,22 @@
     </row>
     <row r="15" spans="1:8" ht="150">
       <c r="A15" s="14" t="s">
-        <v>1048</v>
+        <v>927</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>825</v>
+        <v>704</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>832</v>
+        <v>711</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>833</v>
+        <v>712</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>834</v>
+        <v>713</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>835</v>
+        <v>714</v>
       </c>
       <c r="G15" s="80" t="s">
         <v>177</v>
@@ -17939,22 +16330,22 @@
     </row>
     <row r="16" spans="1:8" ht="300">
       <c r="A16" s="14" t="s">
-        <v>1049</v>
+        <v>928</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>825</v>
+        <v>704</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>836</v>
+        <v>715</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>833</v>
+        <v>712</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>837</v>
+        <v>716</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>838</v>
+        <v>717</v>
       </c>
       <c r="G16" s="80" t="s">
         <v>18</v>
@@ -17963,22 +16354,22 @@
     </row>
     <row r="17" spans="1:8" ht="219">
       <c r="A17" s="14" t="s">
-        <v>1050</v>
+        <v>929</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>825</v>
+        <v>704</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>839</v>
+        <v>718</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>833</v>
+        <v>712</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>840</v>
+        <v>719</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>841</v>
+        <v>720</v>
       </c>
       <c r="G17" s="80" t="s">
         <v>177</v>
@@ -17987,22 +16378,22 @@
     </row>
     <row r="18" spans="1:8" ht="117">
       <c r="A18" s="14" t="s">
-        <v>1051</v>
+        <v>930</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>842</v>
+        <v>721</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>843</v>
+        <v>722</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>844</v>
+        <v>723</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>845</v>
+        <v>724</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>846</v>
+        <v>725</v>
       </c>
       <c r="G18" s="80" t="s">
         <v>18</v>
@@ -18011,22 +16402,22 @@
     </row>
     <row r="19" spans="1:8" ht="90">
       <c r="A19" s="14" t="s">
-        <v>1052</v>
+        <v>931</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>847</v>
+        <v>726</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>848</v>
+        <v>727</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>844</v>
+        <v>723</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>849</v>
+        <v>728</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>850</v>
+        <v>729</v>
       </c>
       <c r="G19" s="80" t="s">
         <v>18</v>
@@ -18035,22 +16426,22 @@
     </row>
     <row r="20" spans="1:8" ht="183">
       <c r="A20" s="14" t="s">
-        <v>1053</v>
+        <v>932</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>851</v>
+        <v>730</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>852</v>
+        <v>731</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>853</v>
+        <v>732</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>854</v>
+        <v>733</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>855</v>
+        <v>734</v>
       </c>
       <c r="G20" s="80" t="s">
         <v>18</v>
@@ -18059,22 +16450,22 @@
     </row>
     <row r="21" spans="1:8" ht="186">
       <c r="A21" s="14" t="s">
-        <v>1054</v>
+        <v>933</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>851</v>
+        <v>730</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>856</v>
+        <v>735</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>857</v>
+        <v>736</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>858</v>
+        <v>737</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>859</v>
+        <v>738</v>
       </c>
       <c r="G21" s="80" t="s">
         <v>18</v>
@@ -18083,22 +16474,22 @@
     </row>
     <row r="22" spans="1:8" ht="120">
       <c r="A22" s="14" t="s">
-        <v>1055</v>
+        <v>934</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>860</v>
+        <v>739</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>861</v>
+        <v>740</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>853</v>
+        <v>732</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>862</v>
+        <v>741</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>863</v>
+        <v>742</v>
       </c>
       <c r="G22" s="80" t="s">
         <v>18</v>
@@ -18107,22 +16498,22 @@
     </row>
     <row r="23" spans="1:8" ht="69">
       <c r="A23" s="14" t="s">
-        <v>1056</v>
+        <v>935</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>851</v>
+        <v>730</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>864</v>
+        <v>743</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>853</v>
+        <v>732</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>865</v>
+        <v>744</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>866</v>
+        <v>745</v>
       </c>
       <c r="G23" s="80" t="s">
         <v>18</v>
@@ -18131,22 +16522,22 @@
     </row>
     <row r="24" spans="1:8" ht="69">
       <c r="A24" s="14" t="s">
-        <v>1057</v>
+        <v>936</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>851</v>
+        <v>730</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>867</v>
+        <v>746</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>853</v>
+        <v>732</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>868</v>
+        <v>747</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>869</v>
+        <v>748</v>
       </c>
       <c r="G24" s="80" t="s">
         <v>18</v>
@@ -18154,22 +16545,22 @@
     </row>
     <row r="25" spans="1:8" ht="105">
       <c r="A25" s="14" t="s">
-        <v>1058</v>
+        <v>937</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>851</v>
+        <v>730</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>870</v>
+        <v>749</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>853</v>
+        <v>732</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>871</v>
+        <v>750</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>872</v>
+        <v>751</v>
       </c>
       <c r="G25" s="80" t="s">
         <v>18</v>
@@ -18177,22 +16568,22 @@
     </row>
     <row r="26" spans="1:8" ht="105">
       <c r="A26" s="14" t="s">
-        <v>1059</v>
+        <v>938</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>851</v>
+        <v>730</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>873</v>
+        <v>752</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>853</v>
+        <v>732</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>874</v>
+        <v>753</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>875</v>
+        <v>754</v>
       </c>
       <c r="G26" s="80" t="s">
         <v>18</v>
@@ -18200,22 +16591,22 @@
     </row>
     <row r="27" spans="1:8" ht="60">
       <c r="A27" s="14" t="s">
-        <v>1060</v>
+        <v>939</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>876</v>
+        <v>755</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>877</v>
+        <v>756</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>878</v>
+        <v>757</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>879</v>
+        <v>758</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>880</v>
+        <v>759</v>
       </c>
       <c r="G27" s="80" t="s">
         <v>18</v>
@@ -18223,22 +16614,22 @@
     </row>
     <row r="28" spans="1:8" ht="66">
       <c r="A28" s="14" t="s">
-        <v>1061</v>
+        <v>940</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>876</v>
+        <v>755</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>881</v>
+        <v>760</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>878</v>
+        <v>757</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>882</v>
+        <v>761</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>883</v>
+        <v>762</v>
       </c>
       <c r="G28" s="80" t="s">
         <v>18</v>
@@ -18246,22 +16637,22 @@
     </row>
     <row r="29" spans="1:8" ht="60">
       <c r="A29" s="14" t="s">
-        <v>1062</v>
+        <v>941</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>876</v>
+        <v>755</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>884</v>
+        <v>763</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>878</v>
+        <v>757</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>885</v>
+        <v>764</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>886</v>
+        <v>765</v>
       </c>
       <c r="G29" s="80" t="s">
         <v>18</v>
@@ -18269,108 +16660,108 @@
     </row>
     <row r="30" spans="1:8" ht="90">
       <c r="A30" s="14" t="s">
-        <v>1063</v>
+        <v>942</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>876</v>
+        <v>755</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>887</v>
+        <v>766</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>878</v>
+        <v>757</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>888</v>
+        <v>767</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>889</v>
+        <v>768</v>
       </c>
       <c r="G30" s="80"/>
     </row>
     <row r="31" spans="1:8" ht="90">
       <c r="A31" s="14" t="s">
-        <v>1064</v>
+        <v>943</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>860</v>
+        <v>739</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>890</v>
+        <v>769</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>891</v>
+        <v>770</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>892</v>
+        <v>771</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>893</v>
-      </c>
-      <c r="G31" s="83" t="s">
+        <v>772</v>
+      </c>
+      <c r="G31" s="82" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="90">
       <c r="A32" s="14" t="s">
-        <v>1065</v>
+        <v>944</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>860</v>
+        <v>739</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>894</v>
+        <v>773</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>895</v>
+        <v>774</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>896</v>
+        <v>775</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>897</v>
-      </c>
-      <c r="G32" s="83"/>
+        <v>776</v>
+      </c>
+      <c r="G32" s="82"/>
     </row>
     <row r="33" spans="1:7" ht="171">
       <c r="A33" s="14" t="s">
-        <v>1066</v>
+        <v>945</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>860</v>
+        <v>739</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>898</v>
+        <v>777</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>833</v>
+        <v>712</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>899</v>
+        <v>778</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>900</v>
-      </c>
-      <c r="G33" s="83"/>
+        <v>779</v>
+      </c>
+      <c r="G33" s="82"/>
     </row>
     <row r="34" spans="1:7" ht="231">
       <c r="A34" s="14" t="s">
-        <v>1067</v>
+        <v>946</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>901</v>
+        <v>780</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>902</v>
+        <v>781</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>903</v>
+        <v>782</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>904</v>
+        <v>783</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>905</v>
+        <v>784</v>
       </c>
       <c r="G34" s="80" t="s">
         <v>18</v>
@@ -18378,89 +16769,89 @@
     </row>
     <row r="35" spans="1:7" ht="240">
       <c r="A35" s="14" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B35" s="84" t="s">
-        <v>906</v>
-      </c>
-      <c r="C35" s="84" t="s">
-        <v>907</v>
-      </c>
-      <c r="D35" s="85" t="s">
-        <v>903</v>
-      </c>
-      <c r="E35" s="85" t="s">
-        <v>908</v>
-      </c>
-      <c r="F35" s="85" t="s">
-        <v>909</v>
-      </c>
-      <c r="G35" s="86" t="s">
+        <v>947</v>
+      </c>
+      <c r="B35" s="83" t="s">
+        <v>785</v>
+      </c>
+      <c r="C35" s="83" t="s">
+        <v>786</v>
+      </c>
+      <c r="D35" s="84" t="s">
+        <v>782</v>
+      </c>
+      <c r="E35" s="84" t="s">
+        <v>787</v>
+      </c>
+      <c r="F35" s="84" t="s">
+        <v>788</v>
+      </c>
+      <c r="G35" s="85" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="60">
       <c r="A36" s="14" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B36" s="84" t="s">
-        <v>860</v>
-      </c>
-      <c r="C36" s="84" t="s">
-        <v>910</v>
-      </c>
-      <c r="D36" s="85" t="s">
-        <v>911</v>
-      </c>
-      <c r="E36" s="85" t="s">
-        <v>912</v>
-      </c>
-      <c r="F36" s="84" t="s">
-        <v>913</v>
-      </c>
-      <c r="G36" s="86" t="s">
+        <v>948</v>
+      </c>
+      <c r="B36" s="83" t="s">
+        <v>739</v>
+      </c>
+      <c r="C36" s="83" t="s">
+        <v>789</v>
+      </c>
+      <c r="D36" s="84" t="s">
+        <v>790</v>
+      </c>
+      <c r="E36" s="84" t="s">
+        <v>791</v>
+      </c>
+      <c r="F36" s="83" t="s">
+        <v>792</v>
+      </c>
+      <c r="G36" s="85" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="60">
       <c r="A37" s="14" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B37" s="84" t="s">
-        <v>860</v>
-      </c>
-      <c r="C37" s="84" t="s">
-        <v>910</v>
-      </c>
-      <c r="D37" s="85" t="s">
-        <v>914</v>
-      </c>
-      <c r="E37" s="85" t="s">
-        <v>915</v>
-      </c>
-      <c r="F37" s="84" t="s">
-        <v>916</v>
-      </c>
-      <c r="G37" s="86"/>
+        <v>949</v>
+      </c>
+      <c r="B37" s="83" t="s">
+        <v>739</v>
+      </c>
+      <c r="C37" s="83" t="s">
+        <v>789</v>
+      </c>
+      <c r="D37" s="84" t="s">
+        <v>793</v>
+      </c>
+      <c r="E37" s="84" t="s">
+        <v>794</v>
+      </c>
+      <c r="F37" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="G37" s="85"/>
     </row>
     <row r="38" spans="1:7" ht="120">
       <c r="A38" s="14" t="s">
-        <v>1071</v>
+        <v>950</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>851</v>
+        <v>730</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>917</v>
+        <v>796</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>918</v>
+        <v>797</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>919</v>
+        <v>798</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>920</v>
+        <v>799</v>
       </c>
       <c r="G38" s="80" t="s">
         <v>18</v>
@@ -18468,22 +16859,22 @@
     </row>
     <row r="39" spans="1:7" ht="135">
       <c r="A39" s="14" t="s">
-        <v>1072</v>
+        <v>951</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>921</v>
+        <v>800</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>922</v>
+        <v>801</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>923</v>
+        <v>802</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>924</v>
+        <v>803</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>925</v>
+        <v>804</v>
       </c>
       <c r="G39" s="80" t="s">
         <v>18</v>
@@ -18491,22 +16882,22 @@
     </row>
     <row r="40" spans="1:7" ht="195">
       <c r="A40" s="14" t="s">
-        <v>1073</v>
+        <v>952</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>926</v>
+        <v>805</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>927</v>
+        <v>806</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>928</v>
+        <v>807</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>929</v>
+        <v>808</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>930</v>
+        <v>809</v>
       </c>
       <c r="G40" s="80" t="s">
         <v>177</v>
@@ -18514,22 +16905,22 @@
     </row>
     <row r="41" spans="1:7" ht="225">
       <c r="A41" s="14" t="s">
-        <v>1074</v>
+        <v>953</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>931</v>
+        <v>810</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>932</v>
+        <v>811</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>928</v>
+        <v>807</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>933</v>
+        <v>812</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>934</v>
+        <v>813</v>
       </c>
       <c r="G41" s="80" t="s">
         <v>18</v>
@@ -18537,22 +16928,22 @@
     </row>
     <row r="42" spans="1:7" ht="120">
       <c r="A42" s="14" t="s">
-        <v>1075</v>
+        <v>954</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>931</v>
+        <v>810</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>935</v>
+        <v>814</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>936</v>
+        <v>815</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>937</v>
+        <v>816</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>938</v>
+        <v>817</v>
       </c>
       <c r="G42" s="80" t="s">
         <v>18</v>
@@ -18560,158 +16951,158 @@
     </row>
     <row r="43" spans="1:7" ht="150">
       <c r="A43" s="14" t="s">
-        <v>1076</v>
+        <v>955</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>939</v>
+        <v>818</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>940</v>
+        <v>819</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>941</v>
+        <v>820</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>942</v>
+        <v>821</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>943</v>
-      </c>
-      <c r="G43" s="82" t="s">
+        <v>822</v>
+      </c>
+      <c r="G43" s="81" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="150">
       <c r="A44" s="14" t="s">
-        <v>1077</v>
+        <v>956</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>939</v>
+        <v>818</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>944</v>
+        <v>823</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>941</v>
+        <v>820</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>945</v>
+        <v>824</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>946</v>
-      </c>
-      <c r="G44" s="82"/>
+        <v>825</v>
+      </c>
+      <c r="G44" s="81"/>
     </row>
     <row r="45" spans="1:7" ht="120">
       <c r="A45" s="14" t="s">
-        <v>1078</v>
+        <v>957</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>939</v>
+        <v>818</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>947</v>
+        <v>826</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>948</v>
+        <v>827</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>949</v>
+        <v>828</v>
       </c>
       <c r="F45" s="43" t="s">
-        <v>950</v>
-      </c>
-      <c r="G45" s="82" t="s">
+        <v>829</v>
+      </c>
+      <c r="G45" s="81" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="135">
       <c r="A46" s="14" t="s">
-        <v>1079</v>
+        <v>958</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>939</v>
+        <v>818</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>951</v>
+        <v>830</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>952</v>
+        <v>831</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>953</v>
+        <v>832</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>954</v>
-      </c>
-      <c r="G46" s="82" t="s">
+        <v>833</v>
+      </c>
+      <c r="G46" s="81" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="150">
       <c r="A47" s="14" t="s">
-        <v>1080</v>
+        <v>959</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>939</v>
+        <v>818</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>955</v>
+        <v>834</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>956</v>
+        <v>835</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>957</v>
+        <v>836</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>958</v>
-      </c>
-      <c r="G47" s="82" t="s">
+        <v>837</v>
+      </c>
+      <c r="G47" s="81" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="150">
       <c r="A48" s="14" t="s">
-        <v>1081</v>
+        <v>960</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>959</v>
+        <v>838</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>960</v>
+        <v>839</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>961</v>
+        <v>840</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>962</v>
+        <v>841</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>963</v>
-      </c>
-      <c r="G48" s="82" t="s">
+        <v>842</v>
+      </c>
+      <c r="G48" s="81" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="69">
       <c r="A49" s="14" t="s">
-        <v>1082</v>
+        <v>961</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>964</v>
+        <v>843</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>965</v>
+        <v>844</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>966</v>
+        <v>845</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>967</v>
+        <v>846</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>968</v>
+        <v>847</v>
       </c>
       <c r="G49" s="80" t="s">
         <v>177</v>
@@ -18719,22 +17110,22 @@
     </row>
     <row r="50" spans="1:7" ht="126">
       <c r="A50" s="14" t="s">
-        <v>1083</v>
+        <v>962</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>964</v>
+        <v>843</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>969</v>
+        <v>848</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>966</v>
+        <v>845</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>970</v>
+        <v>849</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>971</v>
+        <v>850</v>
       </c>
       <c r="G50" s="80" t="s">
         <v>177</v>
@@ -18742,22 +17133,22 @@
     </row>
     <row r="51" spans="1:7" ht="126">
       <c r="A51" s="14" t="s">
-        <v>1084</v>
+        <v>963</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>964</v>
+        <v>843</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>972</v>
+        <v>851</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>966</v>
+        <v>845</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>973</v>
+        <v>852</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>974</v>
+        <v>853</v>
       </c>
       <c r="G51" s="80" t="s">
         <v>18</v>
@@ -18765,22 +17156,22 @@
     </row>
     <row r="52" spans="1:7" ht="138">
       <c r="A52" s="14" t="s">
-        <v>1085</v>
+        <v>964</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>975</v>
+        <v>854</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>976</v>
+        <v>855</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>966</v>
+        <v>845</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>977</v>
+        <v>856</v>
       </c>
       <c r="F52" s="37" t="s">
-        <v>978</v>
+        <v>857</v>
       </c>
       <c r="G52" s="80" t="s">
         <v>177</v>
@@ -18788,22 +17179,22 @@
     </row>
     <row r="53" spans="1:7" ht="111">
       <c r="A53" s="14" t="s">
-        <v>1086</v>
+        <v>965</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>979</v>
+        <v>858</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>980</v>
+        <v>859</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>966</v>
+        <v>845</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>981</v>
+        <v>860</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>982</v>
+        <v>861</v>
       </c>
       <c r="G53" s="80" t="s">
         <v>177</v>
@@ -18811,22 +17202,22 @@
     </row>
     <row r="54" spans="1:7" ht="138">
       <c r="A54" s="14" t="s">
-        <v>1087</v>
+        <v>966</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>975</v>
+        <v>854</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>983</v>
+        <v>862</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>966</v>
+        <v>845</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>984</v>
+        <v>863</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>985</v>
+        <v>864</v>
       </c>
       <c r="G54" s="80" t="s">
         <v>18</v>
@@ -18839,7 +17230,7 @@
       <c r="D55" s="45"/>
       <c r="E55" s="42"/>
       <c r="F55" s="55"/>
-      <c r="G55" s="82"/>
+      <c r="G55" s="81"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="14"/>
@@ -18848,7 +17239,7 @@
       <c r="D56" s="45"/>
       <c r="E56" s="43"/>
       <c r="F56" s="55"/>
-      <c r="G56" s="82"/>
+      <c r="G56" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="10">
